--- a/Index_table.xlsx
+++ b/Index_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samantha.l.werner\Desktop\Github\READ-SSB-SSB_METRICS_CATALOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656A4DF4-3D11-4A14-918F-6A4AA707987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D63BF98-0DF6-4F06-B713-078786763445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="94" yWindow="69" windowWidth="16415" windowHeight="7551" xr2:uid="{00B459D0-0E6D-413C-B001-630CD9B1DBF5}"/>
+    <workbookView xWindow="249" yWindow="754" windowWidth="16414" windowHeight="7286" xr2:uid="{00B459D0-0E6D-413C-B001-630CD9B1DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t xml:space="preserve">Metric Category </t>
   </si>
@@ -121,24 +121,12 @@
     <t>Performance Measures Website</t>
   </si>
   <si>
-    <t>Aggregate NE FMPS</t>
-  </si>
-  <si>
-    <t>None (single year)</t>
-  </si>
-  <si>
-    <t>NE FMPs</t>
-  </si>
-  <si>
     <t>2007-2024</t>
   </si>
   <si>
     <t>Profit snapshots</t>
   </si>
   <si>
-    <t>FMP, Gear and FMP-Gear</t>
-  </si>
-  <si>
     <t>Profit Snapshots</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>Vessel-level (responding vessels only)</t>
   </si>
   <si>
-    <t>Gear</t>
-  </si>
-  <si>
     <t>2011, 2012, 2015, 2022</t>
   </si>
   <si>
@@ -175,21 +160,12 @@
     <t>Prices</t>
   </si>
   <si>
-    <t>None (single  year)</t>
-  </si>
-  <si>
     <t>N/A (All Vessels)</t>
   </si>
   <si>
     <t>Effort</t>
   </si>
   <si>
-    <t>FMP</t>
-  </si>
-  <si>
-    <t>None (single  calendar year)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revenue per Days at Sea  </t>
   </si>
   <si>
@@ -224,6 +200,21 @@
   </si>
   <si>
     <t>Vessel- level (responding vessels only)</t>
+  </si>
+  <si>
+    <t>Most Recent Year</t>
+  </si>
+  <si>
+    <t>Aggregate FMP-level</t>
+  </si>
+  <si>
+    <t>FMP-level</t>
+  </si>
+  <si>
+    <t>FMP, Gear type, and FMP &amp; Gear type-levels</t>
+  </si>
+  <si>
+    <t>Gear type-level</t>
   </si>
 </sst>
 </file>
@@ -691,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D40A82-FAB7-4053-BBD9-44EE0830FAC1}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -730,19 +721,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -750,36 +741,36 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.9" thickBot="1" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="56.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4">
         <v>2022</v>
@@ -790,96 +781,96 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="42.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="85.3" thickBot="1" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="5">
         <v>2022</v>
@@ -887,162 +878,162 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="55.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
